--- a/downloaded_files/AERS424_Lecture-35993.xlsx
+++ b/downloaded_files/AERS424_Lecture-35993.xlsx
@@ -569,11 +569,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Flight Mechanics, Stability and Control (AERS424) Location : ----- Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
